--- a/Jupyter/simulationID/cim_0326_1234/data/script_ssi.xlsx
+++ b/Jupyter/simulationID/cim_0326_1234/data/script_ssi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shai/Google Drive/BatYam NY DRIVE/Simulations/March 14 GitHUB/BatYamNY/Jupyter/simulationID/cim_0326_1234/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AB9576-71FD-7E4A-832F-3390C9AFF929}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60A565E-E352-5749-AE0A-7014BC9A9DA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33600" yWindow="-2680" windowWidth="33600" windowHeight="20540" xr2:uid="{A86D1036-0752-124D-A288-1321B8986789}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="95">
   <si>
     <t>index</t>
   </si>
@@ -282,13 +282,49 @@
   </si>
   <si>
     <t>אבא ברדיצב 17, בת ים</t>
+  </si>
+  <si>
+    <t>Num_old_bldgs</t>
+  </si>
+  <si>
+    <t>Num_new_bldgs</t>
+  </si>
+  <si>
+    <t>TotalNewApartments</t>
+  </si>
+  <si>
+    <t>rent_increase</t>
+  </si>
+  <si>
+    <t>purchase_increase</t>
+  </si>
+  <si>
+    <t>new_rent_price</t>
+  </si>
+  <si>
+    <t>new_purchase_price</t>
+  </si>
+  <si>
+    <t>AvrgTotaalArea</t>
+  </si>
+  <si>
+    <t>new_Maintenance</t>
+  </si>
+  <si>
+    <t>new_arnona</t>
+  </si>
+  <si>
+    <t>NewFloors</t>
+  </si>
+  <si>
+    <t>34,31</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -327,6 +363,13 @@
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -375,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -393,11 +436,80 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -707,10 +819,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{807C292D-0617-114F-905A-ECB223F31F24}">
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:AH27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AC32" sqref="AC32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -728,9 +843,13 @@
     <col min="21" max="21" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="17" customWidth="1"/>
     <col min="23" max="23" width="16.6640625" customWidth="1"/>
+    <col min="24" max="24" width="13" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -800,8 +919,41 @@
       <c r="W1" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="X1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>92</v>
+      </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -878,8 +1030,42 @@
       <c r="W2" t="s">
         <v>22</v>
       </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>7</v>
+      </c>
+      <c r="AA2">
+        <v>33</v>
+      </c>
+      <c r="AB2">
+        <v>100</v>
+      </c>
+      <c r="AC2" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="AD2" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="AE2">
+        <v>7000.0000000000009</v>
+      </c>
+      <c r="AF2">
+        <v>2522300.0000000005</v>
+      </c>
+      <c r="AG2">
+        <v>180</v>
+      </c>
+      <c r="AH2">
+        <f t="shared" ref="AH2:AH15" si="1">J2*AB2</f>
+        <v>543.58000000000004</v>
+      </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -913,7 +1099,7 @@
         <v>5.4358000000000004</v>
       </c>
       <c r="K3" s="7">
-        <f t="shared" ref="K3:K4" si="1">INT(J3*F3)</f>
+        <f t="shared" ref="K3:K4" si="2">INT(J3*F3)</f>
         <v>543</v>
       </c>
       <c r="L3">
@@ -921,11 +1107,11 @@
         <v>2031333.3333333335</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M6" si="2">H3*F3+I3+K3</f>
+        <f t="shared" ref="M3:M6" si="3">H3*F3+I3+K3</f>
         <v>7443</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N6" si="3">K3+I3</f>
+        <f t="shared" ref="N3:N6" si="4">K3+I3</f>
         <v>643</v>
       </c>
       <c r="O3">
@@ -947,7 +1133,7 @@
         <v>20120398</v>
       </c>
       <c r="U3" t="str">
-        <f t="shared" ref="U3:U19" si="4">B3</f>
+        <f t="shared" ref="U3:U19" si="5">B3</f>
         <v>216_10</v>
       </c>
       <c r="V3" t="s">
@@ -956,8 +1142,42 @@
       <c r="W3" t="s">
         <v>22</v>
       </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>5</v>
+      </c>
+      <c r="AA3">
+        <v>20</v>
+      </c>
+      <c r="AB3">
+        <v>135</v>
+      </c>
+      <c r="AC3" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="AD3" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="AE3">
+        <v>10278</v>
+      </c>
+      <c r="AF3">
+        <v>3619836.0000000005</v>
+      </c>
+      <c r="AG3">
+        <v>180</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" si="1"/>
+        <v>733.83300000000008</v>
+      </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -991,7 +1211,7 @@
         <v>5.4358000000000004</v>
       </c>
       <c r="K4" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>510</v>
       </c>
       <c r="L4">
@@ -999,11 +1219,11 @@
         <v>1829161.6666666667</v>
       </c>
       <c r="M4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6908</v>
       </c>
       <c r="N4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>610</v>
       </c>
       <c r="O4">
@@ -1025,7 +1245,7 @@
         <v>20141086</v>
       </c>
       <c r="U4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>216_4</v>
       </c>
       <c r="V4" t="s">
@@ -1034,8 +1254,42 @@
       <c r="W4" t="s">
         <v>22</v>
       </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>6</v>
+      </c>
+      <c r="AA4">
+        <v>22</v>
+      </c>
+      <c r="AB4">
+        <v>106</v>
+      </c>
+      <c r="AC4" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="AD4" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="AE4">
+        <v>7992.2000000000007</v>
+      </c>
+      <c r="AF4">
+        <v>2722726.6</v>
+      </c>
+      <c r="AG4">
+        <v>180</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" si="1"/>
+        <v>576.19479999999999</v>
+      </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1069,7 +1323,7 @@
         <v>5.4358000000000004</v>
       </c>
       <c r="K5" s="7">
-        <f t="shared" ref="K5:K22" si="5">INT(J5*F5)</f>
+        <f t="shared" ref="K5:K22" si="6">INT(J5*F5)</f>
         <v>407</v>
       </c>
       <c r="L5">
@@ -1080,7 +1334,7 @@
         <v>6000</v>
       </c>
       <c r="N5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>507</v>
       </c>
       <c r="O5">
@@ -1102,7 +1356,7 @@
         <v>20160636</v>
       </c>
       <c r="U5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>216_7</v>
       </c>
       <c r="V5" t="s">
@@ -1111,8 +1365,42 @@
       <c r="W5" t="s">
         <v>22</v>
       </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>4</v>
+      </c>
+      <c r="AA5">
+        <v>24</v>
+      </c>
+      <c r="AB5">
+        <v>100</v>
+      </c>
+      <c r="AC5" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="AD5" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="AE5">
+        <v>6780.0000000000009</v>
+      </c>
+      <c r="AF5">
+        <v>229166.66666666669</v>
+      </c>
+      <c r="AG5">
+        <v>180</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" si="1"/>
+        <v>543.58000000000004</v>
+      </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1146,7 +1434,7 @@
         <v>5.4358000000000004</v>
       </c>
       <c r="K6" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>434</v>
       </c>
       <c r="L6">
@@ -1154,11 +1442,11 @@
         <v>1448755.6666666667</v>
       </c>
       <c r="M6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5334</v>
       </c>
       <c r="N6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>534</v>
       </c>
       <c r="O6">
@@ -1180,7 +1468,7 @@
         <v>20140449</v>
       </c>
       <c r="U6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>215_15</v>
       </c>
       <c r="V6" t="s">
@@ -1189,8 +1477,42 @@
       <c r="W6" t="s">
         <v>22</v>
       </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>4</v>
+      </c>
+      <c r="AA6">
+        <v>16</v>
+      </c>
+      <c r="AB6">
+        <v>92</v>
+      </c>
+      <c r="AC6" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="AD6" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="AE6">
+        <v>6252</v>
+      </c>
+      <c r="AF6">
+        <v>1832675.9183333335</v>
+      </c>
+      <c r="AG6">
+        <v>180</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="1"/>
+        <v>500.09360000000004</v>
+      </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1223,7 +1545,7 @@
         <v>5.4358000000000004</v>
       </c>
       <c r="K7" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>510</v>
       </c>
       <c r="L7">
@@ -1231,11 +1553,11 @@
         <v>1795556.6666666667</v>
       </c>
       <c r="M7">
-        <f t="shared" ref="M7:M22" si="6">H7*F7+I7+K7</f>
+        <f t="shared" ref="M7:M22" si="7">H7*F7+I7+K7</f>
         <v>5310</v>
       </c>
       <c r="N7">
-        <f t="shared" ref="N7:N22" si="7">K7+I7</f>
+        <f t="shared" ref="N7:N22" si="8">K7+I7</f>
         <v>610</v>
       </c>
       <c r="O7">
@@ -1257,7 +1579,7 @@
         <v>20140231</v>
       </c>
       <c r="U7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>209_6</v>
       </c>
       <c r="V7" t="s">
@@ -1266,8 +1588,42 @@
       <c r="W7" t="s">
         <v>27</v>
       </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>9</v>
+      </c>
+      <c r="AA7">
+        <v>25</v>
+      </c>
+      <c r="AB7">
+        <v>119</v>
+      </c>
+      <c r="AC7" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="AD7" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="AE7">
+        <v>7459.9999999999991</v>
+      </c>
+      <c r="AF7">
+        <v>3273261.5999999996</v>
+      </c>
+      <c r="AG7">
+        <v>320</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="1"/>
+        <v>646.86020000000008</v>
+      </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1302,7 +1658,7 @@
         <v>5.4358000000000004</v>
       </c>
       <c r="K8" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>407</v>
       </c>
       <c r="L8">
@@ -1310,11 +1666,11 @@
         <v>1491812.5000000002</v>
       </c>
       <c r="M8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5832</v>
       </c>
       <c r="N8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>507</v>
       </c>
       <c r="O8">
@@ -1336,7 +1692,7 @@
         <v>20120894</v>
       </c>
       <c r="U8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>209_8</v>
       </c>
       <c r="V8" t="s">
@@ -1345,8 +1701,42 @@
       <c r="W8" t="s">
         <v>22</v>
       </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>7</v>
+      </c>
+      <c r="AA8">
+        <v>66</v>
+      </c>
+      <c r="AB8">
+        <v>87</v>
+      </c>
+      <c r="AC8" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="AD8" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="AE8">
+        <v>7592.4</v>
+      </c>
+      <c r="AF8">
+        <v>2076603.0000000002</v>
+      </c>
+      <c r="AG8">
+        <v>180</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="1"/>
+        <v>472.91460000000006</v>
+      </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1379,7 +1769,7 @@
         <v>5.4358000000000004</v>
       </c>
       <c r="K9" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>462</v>
       </c>
       <c r="L9">
@@ -1387,11 +1777,11 @@
         <v>1560370.3299999998</v>
       </c>
       <c r="M9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5832</v>
       </c>
       <c r="N9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>562</v>
       </c>
       <c r="O9">
@@ -1413,7 +1803,7 @@
         <v>20181295</v>
       </c>
       <c r="U9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>208_12</v>
       </c>
       <c r="V9" t="s">
@@ -1422,8 +1812,42 @@
       <c r="W9" t="s">
         <v>22</v>
       </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>6</v>
+      </c>
+      <c r="AA9">
+        <v>44</v>
+      </c>
+      <c r="AB9">
+        <v>97</v>
+      </c>
+      <c r="AC9" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="AD9" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="AE9">
+        <v>7396.7999999999993</v>
+      </c>
+      <c r="AF9">
+        <v>2136789.4871999999</v>
+      </c>
+      <c r="AG9">
+        <v>180</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="1"/>
+        <v>527.27260000000001</v>
+      </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1457,7 +1881,7 @@
         <v>5.4358000000000004</v>
       </c>
       <c r="K10" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>353</v>
       </c>
       <c r="L10">
@@ -1465,11 +1889,11 @@
         <v>1191384.4041666666</v>
       </c>
       <c r="M10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4808</v>
       </c>
       <c r="N10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>453</v>
       </c>
       <c r="O10">
@@ -1491,7 +1915,7 @@
         <v>20180335</v>
       </c>
       <c r="U10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>210_56</v>
       </c>
       <c r="V10" t="s">
@@ -1500,8 +1924,42 @@
       <c r="W10" t="s">
         <v>27</v>
       </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>9</v>
+      </c>
+      <c r="AA10">
+        <v>23</v>
+      </c>
+      <c r="AB10">
+        <v>120</v>
+      </c>
+      <c r="AC10" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="AD10" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="AE10">
+        <v>9968</v>
+      </c>
+      <c r="AF10">
+        <v>2639374.6800000002</v>
+      </c>
+      <c r="AG10">
+        <v>320</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="1"/>
+        <v>652.29600000000005</v>
+      </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1534,7 +1992,7 @@
         <v>5.4358000000000004</v>
       </c>
       <c r="K11" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>462</v>
       </c>
       <c r="L11">
@@ -1542,11 +2000,11 @@
         <v>1687985.5049999999</v>
       </c>
       <c r="M11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6087</v>
       </c>
       <c r="N11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>562</v>
       </c>
       <c r="O11">
@@ -1568,7 +2026,7 @@
         <v>20150274</v>
       </c>
       <c r="U11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>210_11</v>
       </c>
       <c r="V11" t="s">
@@ -1577,8 +2035,42 @@
       <c r="W11" t="s">
         <v>22</v>
       </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>6</v>
+      </c>
+      <c r="AA11">
+        <v>20</v>
+      </c>
+      <c r="AB11">
+        <v>100</v>
+      </c>
+      <c r="AC11" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="AD11" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="AE11">
+        <v>7330.0000000000009</v>
+      </c>
+      <c r="AF11">
+        <v>2184451.83</v>
+      </c>
+      <c r="AG11">
+        <v>180</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="1"/>
+        <v>543.58000000000004</v>
+      </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1612,7 +2104,7 @@
         <v>5.4358000000000004</v>
       </c>
       <c r="K12" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>423</v>
       </c>
       <c r="L12">
@@ -1620,11 +2112,11 @@
         <v>1612750.5420000001</v>
       </c>
       <c r="M12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5359</v>
       </c>
       <c r="N12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>523</v>
       </c>
       <c r="O12" s="8">
@@ -1646,7 +2138,7 @@
         <v>20141190</v>
       </c>
       <c r="U12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>216_3</v>
       </c>
       <c r="V12" t="s">
@@ -1655,8 +2147,42 @@
       <c r="W12" t="s">
         <v>22</v>
       </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <v>6</v>
+      </c>
+      <c r="AA12">
+        <v>32</v>
+      </c>
+      <c r="AB12">
+        <v>90</v>
+      </c>
+      <c r="AC12" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="AD12" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="AE12">
+        <v>6318.0000000000009</v>
+      </c>
+      <c r="AF12">
+        <v>2046952.6110000003</v>
+      </c>
+      <c r="AG12">
+        <v>180</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="1"/>
+        <v>489.22200000000004</v>
+      </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1690,7 +2216,7 @@
         <v>5.4358000000000004</v>
       </c>
       <c r="K13" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>451</v>
       </c>
       <c r="L13">
@@ -1698,11 +2224,11 @@
         <v>1587799.8908333334</v>
       </c>
       <c r="M13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4950</v>
       </c>
       <c r="N13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>551</v>
       </c>
       <c r="O13" s="8">
@@ -1724,7 +2250,7 @@
         <v>20140060</v>
       </c>
       <c r="U13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>215_18</v>
       </c>
       <c r="V13" t="s">
@@ -1733,8 +2259,42 @@
       <c r="W13" t="s">
         <v>22</v>
       </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+      <c r="Z13">
+        <v>7</v>
+      </c>
+      <c r="AA13">
+        <v>30</v>
+      </c>
+      <c r="AB13">
+        <v>95</v>
+      </c>
+      <c r="AC13" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="AD13" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="AE13">
+        <v>5718.5000000000009</v>
+      </c>
+      <c r="AF13">
+        <v>1999097.4529166671</v>
+      </c>
+      <c r="AG13">
+        <v>180</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="1"/>
+        <v>516.40100000000007</v>
+      </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1768,7 +2328,7 @@
         <v>5.4358000000000004</v>
       </c>
       <c r="K14" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>402</v>
       </c>
       <c r="L14">
@@ -1776,11 +2336,11 @@
         <v>1438701.0933333335</v>
       </c>
       <c r="M14" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5312</v>
       </c>
       <c r="N14" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>502</v>
       </c>
       <c r="O14" s="8">
@@ -1802,7 +2362,7 @@
         <v>20110270</v>
       </c>
       <c r="U14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>215_24</v>
       </c>
       <c r="V14" t="s">
@@ -1811,8 +2371,42 @@
       <c r="W14" t="s">
         <v>22</v>
       </c>
+      <c r="X14">
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+      <c r="Z14">
+        <v>7</v>
+      </c>
+      <c r="AA14">
+        <v>30</v>
+      </c>
+      <c r="AB14">
+        <v>86</v>
+      </c>
+      <c r="AC14" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="AD14" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="AE14">
+        <v>6329.0000000000009</v>
+      </c>
+      <c r="AF14">
+        <v>1839204.3706666671</v>
+      </c>
+      <c r="AG14">
+        <v>180</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="1"/>
+        <v>467.47880000000004</v>
+      </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1845,7 +2439,7 @@
         <v>5.4358000000000004</v>
       </c>
       <c r="K15" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>440</v>
       </c>
       <c r="L15">
@@ -1853,11 +2447,11 @@
         <v>1547950.743</v>
       </c>
       <c r="M15" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5805</v>
       </c>
       <c r="N15" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>540</v>
       </c>
       <c r="O15">
@@ -1879,7 +2473,7 @@
         <v>20131419</v>
       </c>
       <c r="U15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>220_4</v>
       </c>
       <c r="V15" t="s">
@@ -1888,8 +2482,42 @@
       <c r="W15" t="s">
         <v>22</v>
       </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+      <c r="Z15">
+        <v>7</v>
+      </c>
+      <c r="AA15">
+        <v>30</v>
+      </c>
+      <c r="AB15">
+        <v>93</v>
+      </c>
+      <c r="AC15" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="AD15" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="AE15">
+        <v>6829.5000000000009</v>
+      </c>
+      <c r="AF15">
+        <v>1955004.4569000003</v>
+      </c>
+      <c r="AG15">
+        <v>180</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="1"/>
+        <v>505.52940000000001</v>
+      </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1922,7 +2550,7 @@
         <v>5.4358000000000004</v>
       </c>
       <c r="K16" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>434</v>
       </c>
       <c r="L16">
@@ -1930,11 +2558,11 @@
         <v>1885658.8800000001</v>
       </c>
       <c r="M16" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5734</v>
       </c>
       <c r="N16" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>534</v>
       </c>
       <c r="O16" s="8">
@@ -1956,7 +2584,7 @@
         <v>60</v>
       </c>
       <c r="U16" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>complex_215_2</v>
       </c>
       <c r="V16" t="s">
@@ -1965,8 +2593,42 @@
       <c r="W16" t="s">
         <v>32</v>
       </c>
+      <c r="X16">
+        <v>1</v>
+      </c>
+      <c r="Y16">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="14">
+        <v>32</v>
+      </c>
+      <c r="AA16">
+        <v>102</v>
+      </c>
+      <c r="AB16">
+        <v>120</v>
+      </c>
+      <c r="AC16" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="AD16" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="AE16">
+        <v>65250</v>
+      </c>
+      <c r="AF16">
+        <v>3072384</v>
+      </c>
+      <c r="AG16">
+        <v>450</v>
+      </c>
+      <c r="AH16">
+        <f>J16*AB16</f>
+        <v>652.29600000000005</v>
+      </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2000,7 +2662,7 @@
         <v>5.4358000000000004</v>
       </c>
       <c r="K17" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>353</v>
       </c>
       <c r="L17">
@@ -2008,11 +2670,11 @@
         <v>1289166.6666666667</v>
       </c>
       <c r="M17" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4548</v>
       </c>
       <c r="N17" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>453</v>
       </c>
       <c r="O17" s="8">
@@ -2034,7 +2696,7 @@
         <v>37</v>
       </c>
       <c r="U17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>complex_16</v>
       </c>
       <c r="V17" t="s">
@@ -2043,8 +2705,42 @@
       <c r="W17" t="s">
         <v>32</v>
       </c>
+      <c r="X17">
+        <v>4</v>
+      </c>
+      <c r="Y17">
+        <v>2</v>
+      </c>
+      <c r="Z17">
+        <v>32</v>
+      </c>
+      <c r="AA17">
+        <v>208</v>
+      </c>
+      <c r="AB17">
+        <v>120</v>
+      </c>
+      <c r="AC17" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="AD17" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="AE17">
+        <v>65250</v>
+      </c>
+      <c r="AF17">
+        <v>3427200</v>
+      </c>
+      <c r="AG17">
+        <v>450</v>
+      </c>
+      <c r="AH17">
+        <f>J17*AB17</f>
+        <v>652.29600000000005</v>
+      </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2078,7 +2774,7 @@
         <v>5.4358000000000004</v>
       </c>
       <c r="K18" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>462</v>
       </c>
       <c r="L18">
@@ -2086,11 +2782,11 @@
         <v>1801643.0772727272</v>
       </c>
       <c r="M18" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6087</v>
       </c>
       <c r="N18" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>562</v>
       </c>
       <c r="O18" s="8">
@@ -2112,7 +2808,7 @@
         <v>20160319</v>
       </c>
       <c r="U18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>212_53</v>
       </c>
       <c r="V18" t="s">
@@ -2121,8 +2817,42 @@
       <c r="W18" t="s">
         <v>22</v>
       </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <v>9</v>
+      </c>
+      <c r="AA18">
+        <v>54</v>
+      </c>
+      <c r="AB18">
+        <v>97</v>
+      </c>
+      <c r="AC18" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="AD18" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="AE18">
+        <v>7135.5</v>
+      </c>
+      <c r="AF18">
+        <v>2261591.9569999999</v>
+      </c>
+      <c r="AG18">
+        <v>200</v>
+      </c>
+      <c r="AH18">
+        <f>J18*AB18</f>
+        <v>527.27260000000001</v>
+      </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2155,7 +2885,7 @@
         <v>5.4358000000000004</v>
       </c>
       <c r="K19" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>391</v>
       </c>
       <c r="L19" s="6">
@@ -2163,11 +2893,11 @@
         <v>1536192</v>
       </c>
       <c r="M19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4955</v>
       </c>
       <c r="N19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>491</v>
       </c>
       <c r="O19" s="8">
@@ -2189,7 +2919,7 @@
         <v>31</v>
       </c>
       <c r="U19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>complex_17</v>
       </c>
       <c r="V19" t="s">
@@ -2198,8 +2928,42 @@
       <c r="W19" t="s">
         <v>32</v>
       </c>
+      <c r="X19">
+        <v>5</v>
+      </c>
+      <c r="Y19">
+        <v>2</v>
+      </c>
+      <c r="Z19">
+        <v>27</v>
+      </c>
+      <c r="AA19">
+        <v>108</v>
+      </c>
+      <c r="AB19">
+        <v>120</v>
+      </c>
+      <c r="AC19" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AD19" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="AE19">
+        <v>70650</v>
+      </c>
+      <c r="AF19">
+        <v>3200400</v>
+      </c>
+      <c r="AG19">
+        <v>450</v>
+      </c>
+      <c r="AH19">
+        <f t="shared" ref="AH19:AH25" si="9">J19*AB19</f>
+        <v>652.29600000000005</v>
+      </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2232,7 +2996,7 @@
         <v>5.4358000000000004</v>
       </c>
       <c r="K20" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>445</v>
       </c>
       <c r="L20" s="6">
@@ -2240,11 +3004,11 @@
         <v>1906254</v>
       </c>
       <c r="M20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5629</v>
       </c>
       <c r="N20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>545</v>
       </c>
       <c r="O20" s="8">
@@ -2274,8 +3038,42 @@
       <c r="W20" t="s">
         <v>32</v>
       </c>
+      <c r="X20">
+        <v>4</v>
+      </c>
+      <c r="Y20">
+        <v>2</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA20">
+        <v>305</v>
+      </c>
+      <c r="AB20">
+        <v>120</v>
+      </c>
+      <c r="AC20" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AD20" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="AE20">
+        <v>70650</v>
+      </c>
+      <c r="AF20">
+        <v>3200400</v>
+      </c>
+      <c r="AG20">
+        <v>450</v>
+      </c>
+      <c r="AH20">
+        <f t="shared" si="9"/>
+        <v>652.29600000000005</v>
+      </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2308,7 +3106,7 @@
         <v>5.4358000000000004</v>
       </c>
       <c r="K21" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>543</v>
       </c>
       <c r="L21" s="6">
@@ -2316,11 +3114,11 @@
         <v>2087800</v>
       </c>
       <c r="M21" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7043</v>
       </c>
       <c r="N21" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>643</v>
       </c>
       <c r="O21">
@@ -2351,8 +3149,42 @@
       <c r="W21" t="s">
         <v>27</v>
       </c>
+      <c r="X21">
+        <v>1</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="Z21">
+        <v>10</v>
+      </c>
+      <c r="AA21">
+        <v>36</v>
+      </c>
+      <c r="AB21">
+        <v>100</v>
+      </c>
+      <c r="AC21" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="AD21" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="AE21">
+        <v>7360.0000000000009</v>
+      </c>
+      <c r="AF21">
+        <v>2296580.0000000005</v>
+      </c>
+      <c r="AG21">
+        <v>320</v>
+      </c>
+      <c r="AH21">
+        <f t="shared" si="9"/>
+        <v>543.58000000000004</v>
+      </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2386,7 +3218,7 @@
         <v>5.4358000000000004</v>
       </c>
       <c r="K22" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>478</v>
       </c>
       <c r="L22" s="6">
@@ -2394,11 +3226,11 @@
         <v>1746800</v>
       </c>
       <c r="M22" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5858</v>
       </c>
       <c r="N22" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>578</v>
       </c>
       <c r="O22">
@@ -2429,8 +3261,42 @@
       <c r="W22" t="s">
         <v>27</v>
       </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+      <c r="Z22">
+        <v>11</v>
+      </c>
+      <c r="AA22">
+        <v>39</v>
+      </c>
+      <c r="AB22">
+        <v>120</v>
+      </c>
+      <c r="AC22" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="AD22" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="AE22">
+        <v>8240</v>
+      </c>
+      <c r="AF22">
+        <v>2620200</v>
+      </c>
+      <c r="AG22">
+        <v>320</v>
+      </c>
+      <c r="AH22">
+        <f t="shared" si="9"/>
+        <v>652.29600000000005</v>
+      </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2463,19 +3329,19 @@
         <v>5.4358000000000004</v>
       </c>
       <c r="K23" s="10">
-        <f t="shared" ref="K23:K25" si="8">INT(J23*F23)</f>
+        <f t="shared" ref="K23:K25" si="10">INT(J23*F23)</f>
         <v>472</v>
       </c>
       <c r="L23" s="6">
-        <f t="shared" ref="L23:L25" si="9">G23*F23</f>
+        <f t="shared" ref="L23:L25" si="11">G23*F23</f>
         <v>1748119.449</v>
       </c>
       <c r="M23" s="10">
-        <f t="shared" ref="M23:M25" si="10">H23*F23+I23+K23</f>
+        <f t="shared" ref="M23:M25" si="12">H23*F23+I23+K23</f>
         <v>6140</v>
       </c>
       <c r="N23" s="10">
-        <f t="shared" ref="N23:N25" si="11">K23+I23</f>
+        <f t="shared" ref="N23:N25" si="13">K23+I23</f>
         <v>572</v>
       </c>
       <c r="O23">
@@ -2506,8 +3372,42 @@
       <c r="W23" t="s">
         <v>22</v>
       </c>
+      <c r="X23">
+        <v>1</v>
+      </c>
+      <c r="Y23">
+        <v>1</v>
+      </c>
+      <c r="Z23">
+        <v>6</v>
+      </c>
+      <c r="AA23">
+        <v>28</v>
+      </c>
+      <c r="AB23">
+        <v>99</v>
+      </c>
+      <c r="AC23" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="AD23" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="AE23">
+        <v>7149.6</v>
+      </c>
+      <c r="AF23">
+        <v>2188163.3103000005</v>
+      </c>
+      <c r="AG23">
+        <v>180</v>
+      </c>
+      <c r="AH23">
+        <f t="shared" si="9"/>
+        <v>538.14420000000007</v>
+      </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2541,19 +3441,19 @@
         <v>5.4358000000000004</v>
       </c>
       <c r="K24" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>358</v>
       </c>
       <c r="L24" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1202960</v>
       </c>
       <c r="M24" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4616</v>
       </c>
       <c r="N24" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>458</v>
       </c>
       <c r="O24">
@@ -2584,8 +3484,42 @@
       <c r="W24" t="s">
         <v>22</v>
       </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+      <c r="Y24">
+        <v>1</v>
+      </c>
+      <c r="Z24">
+        <v>6</v>
+      </c>
+      <c r="AA24">
+        <v>36</v>
+      </c>
+      <c r="AB24">
+        <v>78</v>
+      </c>
+      <c r="AC24" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="AD24" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="AE24">
+        <v>5585.4000000000005</v>
+      </c>
+      <c r="AF24">
+        <v>1563848.0000000002</v>
+      </c>
+      <c r="AG24">
+        <v>180</v>
+      </c>
+      <c r="AH24">
+        <f t="shared" si="9"/>
+        <v>423.99240000000003</v>
+      </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2619,19 +3553,19 @@
         <v>5.4358000000000004</v>
       </c>
       <c r="K25" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>418</v>
       </c>
       <c r="L25" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1364504.1666666667</v>
       </c>
       <c r="M25" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4907</v>
       </c>
       <c r="N25" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>518</v>
       </c>
       <c r="O25">
@@ -2662,8 +3596,42 @@
       <c r="W25" t="s">
         <v>22</v>
       </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <v>1</v>
+      </c>
+      <c r="Z25">
+        <v>7</v>
+      </c>
+      <c r="AA25">
+        <v>27</v>
+      </c>
+      <c r="AB25">
+        <v>89</v>
+      </c>
+      <c r="AC25" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="AD25" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="AE25">
+        <v>5760.3</v>
+      </c>
+      <c r="AF25">
+        <v>1734869.5833333337</v>
+      </c>
+      <c r="AG25">
+        <v>180</v>
+      </c>
+      <c r="AH25">
+        <f t="shared" si="9"/>
+        <v>483.78620000000001</v>
+      </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
     </row>
   </sheetData>

--- a/Jupyter/simulationID/cim_0326_1234/data/script_ssi.xlsx
+++ b/Jupyter/simulationID/cim_0326_1234/data/script_ssi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shai/Google Drive/BatYam NY DRIVE/Simulations/March 14 GitHUB/BatYamNY/Jupyter/simulationID/cim_0326_1234/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60A565E-E352-5749-AE0A-7014BC9A9DA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BFFB8D-E036-C94E-9A2A-AB5F2954DE88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33600" yWindow="-2680" windowWidth="33600" windowHeight="20540" xr2:uid="{A86D1036-0752-124D-A288-1321B8986789}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="97">
   <si>
     <t>index</t>
   </si>
@@ -318,6 +318,12 @@
   </si>
   <si>
     <t>34,31</t>
+  </si>
+  <si>
+    <t>NewNonRentCost</t>
+  </si>
+  <si>
+    <t>NewRentCost</t>
   </si>
 </sst>
 </file>
@@ -819,13 +825,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{807C292D-0617-114F-905A-ECB223F31F24}">
-  <dimension ref="A1:AH27"/>
+  <dimension ref="A1:AJ27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC32" sqref="AC32"/>
+      <selection pane="bottomRight" activeCell="AJ2" sqref="AJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -849,7 +855,7 @@
     <col min="32" max="32" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -952,8 +958,14 @@
       <c r="AH1" s="3" t="s">
         <v>92</v>
       </c>
+      <c r="AI1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1064,8 +1076,16 @@
         <f t="shared" ref="AH2:AH15" si="1">J2*AB2</f>
         <v>543.58000000000004</v>
       </c>
+      <c r="AI2">
+        <f>AH2+AG2</f>
+        <v>723.58</v>
+      </c>
+      <c r="AJ2">
+        <f>AH2+AG2+AE2</f>
+        <v>7723.5800000000008</v>
+      </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1176,8 +1196,16 @@
         <f t="shared" si="1"/>
         <v>733.83300000000008</v>
       </c>
+      <c r="AI3">
+        <f t="shared" ref="AI3:AI25" si="6">AH3+AG3</f>
+        <v>913.83300000000008</v>
+      </c>
+      <c r="AJ3">
+        <f t="shared" ref="AJ3:AJ25" si="7">AH3+AG3+AE3</f>
+        <v>11191.833000000001</v>
+      </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1288,8 +1316,16 @@
         <f t="shared" si="1"/>
         <v>576.19479999999999</v>
       </c>
+      <c r="AI4">
+        <f t="shared" si="6"/>
+        <v>756.19479999999999</v>
+      </c>
+      <c r="AJ4">
+        <f t="shared" si="7"/>
+        <v>8748.3948</v>
+      </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1323,7 +1359,7 @@
         <v>5.4358000000000004</v>
       </c>
       <c r="K5" s="7">
-        <f t="shared" ref="K5:K22" si="6">INT(J5*F5)</f>
+        <f t="shared" ref="K5:K22" si="8">INT(J5*F5)</f>
         <v>407</v>
       </c>
       <c r="L5">
@@ -1399,8 +1435,16 @@
         <f t="shared" si="1"/>
         <v>543.58000000000004</v>
       </c>
+      <c r="AI5">
+        <f t="shared" si="6"/>
+        <v>723.58</v>
+      </c>
+      <c r="AJ5">
+        <f t="shared" si="7"/>
+        <v>7503.5800000000008</v>
+      </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1434,7 +1478,7 @@
         <v>5.4358000000000004</v>
       </c>
       <c r="K6" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>434</v>
       </c>
       <c r="L6">
@@ -1511,8 +1555,16 @@
         <f t="shared" si="1"/>
         <v>500.09360000000004</v>
       </c>
+      <c r="AI6">
+        <f t="shared" si="6"/>
+        <v>680.09360000000004</v>
+      </c>
+      <c r="AJ6">
+        <f t="shared" si="7"/>
+        <v>6932.0936000000002</v>
+      </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1545,7 +1597,7 @@
         <v>5.4358000000000004</v>
       </c>
       <c r="K7" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>510</v>
       </c>
       <c r="L7">
@@ -1553,11 +1605,11 @@
         <v>1795556.6666666667</v>
       </c>
       <c r="M7">
-        <f t="shared" ref="M7:M22" si="7">H7*F7+I7+K7</f>
+        <f t="shared" ref="M7:M22" si="9">H7*F7+I7+K7</f>
         <v>5310</v>
       </c>
       <c r="N7">
-        <f t="shared" ref="N7:N22" si="8">K7+I7</f>
+        <f t="shared" ref="N7:N22" si="10">K7+I7</f>
         <v>610</v>
       </c>
       <c r="O7">
@@ -1622,8 +1674,16 @@
         <f t="shared" si="1"/>
         <v>646.86020000000008</v>
       </c>
+      <c r="AI7">
+        <f t="shared" si="6"/>
+        <v>966.86020000000008</v>
+      </c>
+      <c r="AJ7">
+        <f t="shared" si="7"/>
+        <v>8426.8601999999992</v>
+      </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1658,7 +1718,7 @@
         <v>5.4358000000000004</v>
       </c>
       <c r="K8" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>407</v>
       </c>
       <c r="L8">
@@ -1666,11 +1726,11 @@
         <v>1491812.5000000002</v>
       </c>
       <c r="M8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5832</v>
       </c>
       <c r="N8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>507</v>
       </c>
       <c r="O8">
@@ -1735,8 +1795,16 @@
         <f t="shared" si="1"/>
         <v>472.91460000000006</v>
       </c>
+      <c r="AI8">
+        <f t="shared" si="6"/>
+        <v>652.91460000000006</v>
+      </c>
+      <c r="AJ8">
+        <f t="shared" si="7"/>
+        <v>8245.3145999999997</v>
+      </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1769,7 +1837,7 @@
         <v>5.4358000000000004</v>
       </c>
       <c r="K9" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>462</v>
       </c>
       <c r="L9">
@@ -1777,11 +1845,11 @@
         <v>1560370.3299999998</v>
       </c>
       <c r="M9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5832</v>
       </c>
       <c r="N9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>562</v>
       </c>
       <c r="O9">
@@ -1846,8 +1914,16 @@
         <f t="shared" si="1"/>
         <v>527.27260000000001</v>
       </c>
+      <c r="AI9">
+        <f t="shared" si="6"/>
+        <v>707.27260000000001</v>
+      </c>
+      <c r="AJ9">
+        <f t="shared" si="7"/>
+        <v>8104.0725999999995</v>
+      </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1881,7 +1957,7 @@
         <v>5.4358000000000004</v>
       </c>
       <c r="K10" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>353</v>
       </c>
       <c r="L10">
@@ -1889,11 +1965,11 @@
         <v>1191384.4041666666</v>
       </c>
       <c r="M10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4808</v>
       </c>
       <c r="N10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>453</v>
       </c>
       <c r="O10">
@@ -1958,8 +2034,16 @@
         <f t="shared" si="1"/>
         <v>652.29600000000005</v>
       </c>
+      <c r="AI10">
+        <f t="shared" si="6"/>
+        <v>972.29600000000005</v>
+      </c>
+      <c r="AJ10">
+        <f t="shared" si="7"/>
+        <v>10940.296</v>
+      </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1992,7 +2076,7 @@
         <v>5.4358000000000004</v>
       </c>
       <c r="K11" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>462</v>
       </c>
       <c r="L11">
@@ -2000,11 +2084,11 @@
         <v>1687985.5049999999</v>
       </c>
       <c r="M11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6087</v>
       </c>
       <c r="N11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>562</v>
       </c>
       <c r="O11">
@@ -2069,8 +2153,16 @@
         <f t="shared" si="1"/>
         <v>543.58000000000004</v>
       </c>
+      <c r="AI11">
+        <f t="shared" si="6"/>
+        <v>723.58</v>
+      </c>
+      <c r="AJ11">
+        <f t="shared" si="7"/>
+        <v>8053.5800000000008</v>
+      </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2104,7 +2196,7 @@
         <v>5.4358000000000004</v>
       </c>
       <c r="K12" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>423</v>
       </c>
       <c r="L12">
@@ -2112,11 +2204,11 @@
         <v>1612750.5420000001</v>
       </c>
       <c r="M12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5359</v>
       </c>
       <c r="N12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>523</v>
       </c>
       <c r="O12" s="8">
@@ -2181,8 +2273,16 @@
         <f t="shared" si="1"/>
         <v>489.22200000000004</v>
       </c>
+      <c r="AI12">
+        <f t="shared" si="6"/>
+        <v>669.22199999999998</v>
+      </c>
+      <c r="AJ12">
+        <f t="shared" si="7"/>
+        <v>6987.2220000000007</v>
+      </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2216,7 +2316,7 @@
         <v>5.4358000000000004</v>
       </c>
       <c r="K13" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>451</v>
       </c>
       <c r="L13">
@@ -2224,11 +2324,11 @@
         <v>1587799.8908333334</v>
       </c>
       <c r="M13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4950</v>
       </c>
       <c r="N13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>551</v>
       </c>
       <c r="O13" s="8">
@@ -2293,8 +2393,16 @@
         <f t="shared" si="1"/>
         <v>516.40100000000007</v>
       </c>
+      <c r="AI13">
+        <f t="shared" si="6"/>
+        <v>696.40100000000007</v>
+      </c>
+      <c r="AJ13">
+        <f t="shared" si="7"/>
+        <v>6414.9010000000007</v>
+      </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2328,7 +2436,7 @@
         <v>5.4358000000000004</v>
       </c>
       <c r="K14" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>402</v>
       </c>
       <c r="L14">
@@ -2336,11 +2444,11 @@
         <v>1438701.0933333335</v>
       </c>
       <c r="M14" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5312</v>
       </c>
       <c r="N14" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>502</v>
       </c>
       <c r="O14" s="8">
@@ -2405,8 +2513,16 @@
         <f t="shared" si="1"/>
         <v>467.47880000000004</v>
       </c>
+      <c r="AI14">
+        <f t="shared" si="6"/>
+        <v>647.47880000000009</v>
+      </c>
+      <c r="AJ14">
+        <f t="shared" si="7"/>
+        <v>6976.4788000000008</v>
+      </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2439,7 +2555,7 @@
         <v>5.4358000000000004</v>
       </c>
       <c r="K15" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>440</v>
       </c>
       <c r="L15">
@@ -2447,11 +2563,11 @@
         <v>1547950.743</v>
       </c>
       <c r="M15" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5805</v>
       </c>
       <c r="N15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>540</v>
       </c>
       <c r="O15">
@@ -2516,8 +2632,16 @@
         <f t="shared" si="1"/>
         <v>505.52940000000001</v>
       </c>
+      <c r="AI15">
+        <f t="shared" si="6"/>
+        <v>685.52940000000001</v>
+      </c>
+      <c r="AJ15">
+        <f t="shared" si="7"/>
+        <v>7515.0294000000013</v>
+      </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2550,7 +2674,7 @@
         <v>5.4358000000000004</v>
       </c>
       <c r="K16" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>434</v>
       </c>
       <c r="L16">
@@ -2558,11 +2682,11 @@
         <v>1885658.8800000001</v>
       </c>
       <c r="M16" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5734</v>
       </c>
       <c r="N16" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>534</v>
       </c>
       <c r="O16" s="8">
@@ -2627,8 +2751,16 @@
         <f>J16*AB16</f>
         <v>652.29600000000005</v>
       </c>
+      <c r="AI16">
+        <f t="shared" si="6"/>
+        <v>1102.296</v>
+      </c>
+      <c r="AJ16">
+        <f t="shared" si="7"/>
+        <v>66352.296000000002</v>
+      </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2662,7 +2794,7 @@
         <v>5.4358000000000004</v>
       </c>
       <c r="K17" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>353</v>
       </c>
       <c r="L17">
@@ -2670,11 +2802,11 @@
         <v>1289166.6666666667</v>
       </c>
       <c r="M17" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4548</v>
       </c>
       <c r="N17" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>453</v>
       </c>
       <c r="O17" s="8">
@@ -2739,8 +2871,16 @@
         <f>J17*AB17</f>
         <v>652.29600000000005</v>
       </c>
+      <c r="AI17">
+        <f t="shared" si="6"/>
+        <v>1102.296</v>
+      </c>
+      <c r="AJ17">
+        <f t="shared" si="7"/>
+        <v>66352.296000000002</v>
+      </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2774,7 +2914,7 @@
         <v>5.4358000000000004</v>
       </c>
       <c r="K18" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>462</v>
       </c>
       <c r="L18">
@@ -2782,11 +2922,11 @@
         <v>1801643.0772727272</v>
       </c>
       <c r="M18" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6087</v>
       </c>
       <c r="N18" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>562</v>
       </c>
       <c r="O18" s="8">
@@ -2851,8 +2991,16 @@
         <f>J18*AB18</f>
         <v>527.27260000000001</v>
       </c>
+      <c r="AI18">
+        <f t="shared" si="6"/>
+        <v>727.27260000000001</v>
+      </c>
+      <c r="AJ18">
+        <f t="shared" si="7"/>
+        <v>7862.7726000000002</v>
+      </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2885,7 +3033,7 @@
         <v>5.4358000000000004</v>
       </c>
       <c r="K19" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>391</v>
       </c>
       <c r="L19" s="6">
@@ -2893,11 +3041,11 @@
         <v>1536192</v>
       </c>
       <c r="M19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4955</v>
       </c>
       <c r="N19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>491</v>
       </c>
       <c r="O19" s="8">
@@ -2959,11 +3107,19 @@
         <v>450</v>
       </c>
       <c r="AH19">
-        <f t="shared" ref="AH19:AH25" si="9">J19*AB19</f>
+        <f t="shared" ref="AH19:AH25" si="11">J19*AB19</f>
         <v>652.29600000000005</v>
       </c>
+      <c r="AI19">
+        <f t="shared" si="6"/>
+        <v>1102.296</v>
+      </c>
+      <c r="AJ19">
+        <f t="shared" si="7"/>
+        <v>71752.296000000002</v>
+      </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2996,7 +3152,7 @@
         <v>5.4358000000000004</v>
       </c>
       <c r="K20" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>445</v>
       </c>
       <c r="L20" s="6">
@@ -3004,11 +3160,11 @@
         <v>1906254</v>
       </c>
       <c r="M20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5629</v>
       </c>
       <c r="N20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>545</v>
       </c>
       <c r="O20" s="8">
@@ -3069,11 +3225,19 @@
         <v>450</v>
       </c>
       <c r="AH20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>652.29600000000005</v>
       </c>
+      <c r="AI20">
+        <f t="shared" si="6"/>
+        <v>1102.296</v>
+      </c>
+      <c r="AJ20">
+        <f t="shared" si="7"/>
+        <v>71752.296000000002</v>
+      </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3106,7 +3270,7 @@
         <v>5.4358000000000004</v>
       </c>
       <c r="K21" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>543</v>
       </c>
       <c r="L21" s="6">
@@ -3114,11 +3278,11 @@
         <v>2087800</v>
       </c>
       <c r="M21" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7043</v>
       </c>
       <c r="N21" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>643</v>
       </c>
       <c r="O21">
@@ -3180,11 +3344,19 @@
         <v>320</v>
       </c>
       <c r="AH21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>543.58000000000004</v>
       </c>
+      <c r="AI21">
+        <f t="shared" si="6"/>
+        <v>863.58</v>
+      </c>
+      <c r="AJ21">
+        <f t="shared" si="7"/>
+        <v>8223.5800000000017</v>
+      </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3218,7 +3390,7 @@
         <v>5.4358000000000004</v>
       </c>
       <c r="K22" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>478</v>
       </c>
       <c r="L22" s="6">
@@ -3226,11 +3398,11 @@
         <v>1746800</v>
       </c>
       <c r="M22" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5858</v>
       </c>
       <c r="N22" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>578</v>
       </c>
       <c r="O22">
@@ -3292,11 +3464,19 @@
         <v>320</v>
       </c>
       <c r="AH22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>652.29600000000005</v>
       </c>
+      <c r="AI22">
+        <f t="shared" si="6"/>
+        <v>972.29600000000005</v>
+      </c>
+      <c r="AJ22">
+        <f t="shared" si="7"/>
+        <v>9212.2960000000003</v>
+      </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3329,19 +3509,19 @@
         <v>5.4358000000000004</v>
       </c>
       <c r="K23" s="10">
-        <f t="shared" ref="K23:K25" si="10">INT(J23*F23)</f>
+        <f t="shared" ref="K23:K25" si="12">INT(J23*F23)</f>
         <v>472</v>
       </c>
       <c r="L23" s="6">
-        <f t="shared" ref="L23:L25" si="11">G23*F23</f>
+        <f t="shared" ref="L23:L25" si="13">G23*F23</f>
         <v>1748119.449</v>
       </c>
       <c r="M23" s="10">
-        <f t="shared" ref="M23:M25" si="12">H23*F23+I23+K23</f>
+        <f t="shared" ref="M23:M25" si="14">H23*F23+I23+K23</f>
         <v>6140</v>
       </c>
       <c r="N23" s="10">
-        <f t="shared" ref="N23:N25" si="13">K23+I23</f>
+        <f t="shared" ref="N23:N25" si="15">K23+I23</f>
         <v>572</v>
       </c>
       <c r="O23">
@@ -3403,11 +3583,19 @@
         <v>180</v>
       </c>
       <c r="AH23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>538.14420000000007</v>
       </c>
+      <c r="AI23">
+        <f t="shared" si="6"/>
+        <v>718.14420000000007</v>
+      </c>
+      <c r="AJ23">
+        <f t="shared" si="7"/>
+        <v>7867.7442000000001</v>
+      </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3441,19 +3629,19 @@
         <v>5.4358000000000004</v>
       </c>
       <c r="K24" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>358</v>
       </c>
       <c r="L24" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1202960</v>
       </c>
       <c r="M24" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4616</v>
       </c>
       <c r="N24" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>458</v>
       </c>
       <c r="O24">
@@ -3515,11 +3703,19 @@
         <v>180</v>
       </c>
       <c r="AH24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>423.99240000000003</v>
       </c>
+      <c r="AI24">
+        <f t="shared" si="6"/>
+        <v>603.99240000000009</v>
+      </c>
+      <c r="AJ24">
+        <f t="shared" si="7"/>
+        <v>6189.3924000000006</v>
+      </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3553,19 +3749,19 @@
         <v>5.4358000000000004</v>
       </c>
       <c r="K25" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>418</v>
       </c>
       <c r="L25" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1364504.1666666667</v>
       </c>
       <c r="M25" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4907</v>
       </c>
       <c r="N25" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>518</v>
       </c>
       <c r="O25">
@@ -3627,11 +3823,19 @@
         <v>180</v>
       </c>
       <c r="AH25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>483.78620000000001</v>
       </c>
+      <c r="AI25">
+        <f t="shared" si="6"/>
+        <v>663.78620000000001</v>
+      </c>
+      <c r="AJ25">
+        <f t="shared" si="7"/>
+        <v>6424.0861999999997</v>
+      </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
     </row>
   </sheetData>
